--- a/src/main/resources/testData/Emp_testData.xlsx
+++ b/src/main/resources/testData/Emp_testData.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t xml:space="preserve">TestDatas</t>
   </si>
   <si>
     <t xml:space="preserve">EmployeeId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data1</t>
   </si>
 </sst>
 </file>
@@ -138,7 +135,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -158,7 +155,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>3</v>
